--- a/docs/Diagrama tablas.xlsx
+++ b/docs/Diagrama tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio\UTN\4\Habilitación profesional\Diagramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio\UTN\4\Habilitación profesional\Código\Habilitacion\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>maquina</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>codtarea</t>
+  </si>
+  <si>
+    <t>observaciones_tarea</t>
+  </si>
+  <si>
+    <t>observaciones_operario</t>
   </si>
 </sst>
 </file>
@@ -309,6 +315,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,13 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -615,25 +621,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -712,16 +718,16 @@
       <c r="I7" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -792,7 +798,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -805,7 +811,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -845,7 +851,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
@@ -853,7 +859,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -867,28 +873,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -911,19 +918,22 @@
         <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -935,8 +945,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -946,7 +957,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -966,7 +977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1128,10 +1139,10 @@
       <c r="C55" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -1165,21 +1176,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/docs/Diagrama tablas.xlsx
+++ b/docs/Diagrama tablas.xlsx
@@ -83,9 +83,6 @@
     <t>tarea</t>
   </si>
   <si>
-    <t>cantidad_solicitada</t>
-  </si>
-  <si>
     <t>cantidad_real</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>observaciones_operario</t>
+  </si>
+  <si>
+    <t>cantidad_teorica</t>
   </si>
 </sst>
 </file>
@@ -321,6 +321,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,9 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,11 +635,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -694,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>6</v>
@@ -721,12 +721,12 @@
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -743,16 +743,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -834,10 +834,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -883,16 +883,16 @@
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -903,34 +903,34 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1006,13 +1006,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,20 +1025,20 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,12 +1048,12 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1076,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,16 +1158,16 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="12"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,6 +1193,10 @@
     <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LDiagrama de tablas&amp;CDiagramas&amp;RHabilitación profesional</oddHeader>
+    <oddFooter>&amp;LEmiliano Gioria&amp;CMarina Ludi&amp;RAndrés Rico</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/Diagrama tablas.xlsx
+++ b/docs/Diagrama tablas.xlsx
@@ -318,10 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,13 +721,13 @@
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -883,17 +883,17 @@
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1142,7 +1142,7 @@
       <c r="A57" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -1176,6 +1176,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A1:C1"/>
@@ -1185,18 +1191,12 @@
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LDiagrama de tablas&amp;CDiagramas&amp;RHabilitación profesional</oddHeader>
-    <oddFooter>&amp;LEmiliano Gioria&amp;CMarina Ludi&amp;RAndrés Rico</oddFooter>
+    <oddFooter>&amp;LEmiliano Gioria&amp;RAndrés Rico</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/docs/Diagrama tablas.xlsx
+++ b/docs/Diagrama tablas.xlsx
@@ -318,10 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,13 +721,13 @@
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -883,17 +883,17 @@
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1142,7 +1142,7 @@
       <c r="A57" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
@@ -1176,12 +1176,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A1:C1"/>
@@ -1191,9 +1185,15 @@
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="300" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LDiagrama de tablas&amp;CDiagramas&amp;RHabilitación profesional</oddHeader>
     <oddFooter>&amp;LEmiliano Gioria&amp;RAndrés Rico</oddFooter>
